--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="14295" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
-  <si>
-    <t>云店顶目的 REST API</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+  <si>
+    <t>蜂体项目的 REST API</t>
   </si>
   <si>
     <t>No</t>
@@ -71,9 +71,11 @@
     <t>status: request processing status
               (true or false)
 result: the information of the user
+        no: index of user
         nickname: user nickname
         name: real name of user
         phone: phone number of user
+        role: role of user
         state: state of user registragion
         honey: honey amount of user
         forbidden: system state of user
@@ -242,20 +244,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">status: request processing status
               (true or false)
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -346,6 +341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">status: request processing status
@@ -426,9 +422,261 @@
 if event==null then  there is no event in the site</t>
   </si>
   <si>
-    <t>api/payOrderRequest</t>
-  </si>
-  <si>
+    <t>api/getRatingBySite</t>
+  </si>
+  <si>
+    <t>boss_id: id of the boss of site current user want to see</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">status: request processing status
+              (true or false)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>result: the information of the rating of site
+                  id: index of the rating
+                  user_id: user id of the submit comment
+                 point: point of the rating
+                comment : the main part of rating
+                submit_time: the time when user submit
+                                                              rating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>this api is used for the information of rating of the sites which user want to see.
+if result==null there is no rating for the site</t>
+  </si>
+  <si>
+    <t>api/registerUser</t>
+  </si>
+  <si>
+    <t>nickname: nickname of the user on wechat
+role: role of the current user
+name: real name of the user
+site_name: site name of the user if role is boss
+phone: phone number of the user
+address1: province of the site
+address2: city of the site
+address3: district of the site
+address4: detailed address of the site
+longitude: longitude of the address
+latitude: latitude of the address
+id_no: number of identification of the user
+allow_pic: picture of business license
+id_pic1: front picture of the id card
+id_pic2:back picture of the id card</t>
+  </si>
+  <si>
+    <t>status: request processing status
+              (true or false)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this api is used for registration of the user
+</t>
+  </si>
+  <si>
+    <t>api/getAcceptAddress</t>
+  </si>
+  <si>
+    <t>user_id:  id of the current user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status: request processing status
+              (true or false)
+result: the information of the recieve address of exchange
+       user_id: id of user
+       no: index of the address
+       name: name of the reciever
+       phone: phone number of reciever
+       address: address of reciever
+       email: email of reciever
+       state: state of being main reciever
+</t>
+  </si>
+  <si>
+    <t>this api is used for get the main address of the user
+ if result==null user has not set the address of reciever</t>
+  </si>
+  <si>
+    <t>wallet manage</t>
+  </si>
+  <si>
+    <t>api/addAcceptAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id: id of user
+       name: name of the reciever
+       phone: phone number of reciever
+       address: address of reciever
+       email: email of reciever
+</t>
+  </si>
+  <si>
+    <t>this api is used to add the reciever address of exchange</t>
+  </si>
+  <si>
+    <t>favorite manage</t>
+  </si>
+  <si>
+    <t>api/changeAcceptAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id: id of user
+       no: index of address
+       name: name of the reciever
+       phone: phone number of reciever
+       address: address of reciever
+       email: email of reciever
+</t>
+  </si>
+  <si>
+    <t>this api is used to change the content of the reciever address</t>
+  </si>
+  <si>
+    <t>api/checkAcceptAddress</t>
+  </si>
+  <si>
+    <t>no: index of address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status: request processing status
+              (true or false)
+</t>
+  </si>
+  <si>
+    <t>this api is used to change the state of the address as main reciever address</t>
+  </si>
+  <si>
+    <t>api/deleteAcceptAddress</t>
+  </si>
+  <si>
+    <t>no: index of adderss</t>
+  </si>
+  <si>
+    <t>this api is used to delete address</t>
+  </si>
+  <si>
+    <t>feedback manage</t>
+  </si>
+  <si>
+    <t>api/getSiteStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status: request processing status
+              (true or false)
+result: introduction of the site
+        site_icon: icon of the site
+        picture: picture array of the site
+        site_introduction: introduction comment of the site
+        site_service: service detail of the site
+</t>
+  </si>
+  <si>
+    <t>this api is used to get the detail information of the site
+if result==null user has not register the site</t>
+  </si>
+  <si>
+    <t>shipping manage</t>
+  </si>
+  <si>
+    <t>api/addSiteInfo</t>
+  </si>
+  <si>
+    <t>site_icon: icon of the site
+        picture: picture array of the site
+        site_introduction: introduction comment of the site
+        site_service: service detail of the site</t>
+  </si>
+  <si>
+    <t>this api is used to add the information of site</t>
+  </si>
+  <si>
+    <t>api/editSiteInfo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: id of the boss
+site_icon: icon of the site
+        picture: picture array of the site
+        site_introduction: introduction comment of the site
+        site_service: service detail of the site
+</t>
+    </r>
+  </si>
+  <si>
+    <t>this api is used to edit information of site</t>
+  </si>
+  <si>
+    <t>api/addEvent</t>
+  </si>
+  <si>
+    <t>user_id: id of the user
+role: role of the user
+name: name of the event
+type: type of event
+start_time: start time of event
+end_time: end time of event
+address</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>status: request processing status
+              (true or false)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -437,894 +685,6 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: user phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :  order id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>coupon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :   money paid from coupon 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wallet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : money paid from my wallet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>money</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : money with online payment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">status: request processing status
-              (true or false)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :  transaction id
-</t>
-    </r>
-  </si>
-  <si>
-    <t>this api is used for online payment of the order.</t>
-  </si>
-  <si>
-    <t>api/payOrderRequests</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: user phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :  order id list
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>coupon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :   money list  paid from coupon 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wallet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : money list paid from my wallet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>money</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : money list with online payment</t>
-    </r>
-  </si>
-  <si>
-    <t>api/cancelOrderRequest</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: user phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :  order id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : cancel reason</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">status: request processing status
-              (true or false)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :  message  "cancel order success"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>coupon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : 0-no coupon, 1-unused, 2-used
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wallet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : shop's wallet balance
-</t>
-    </r>
-  </si>
-  <si>
-    <t>wallet manage</t>
-  </si>
-  <si>
-    <t>api/getMyWallet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: user phone</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>status: request processing status
-              (true or false)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wallet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : shop's wallet balance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>coupon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : coupon using status</t>
-    </r>
-  </si>
-  <si>
-    <t>this api is used to get the balance of shop's wallet</t>
-  </si>
-  <si>
-    <t>favorite manage</t>
-  </si>
-  <si>
-    <t>api/addFavorite</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: user phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : 0- activity favorite, 1- provider favorite
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>object_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : favorite object id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>status: request processing status
-              (true or false)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : success message
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>favorite_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : inserted favorite id
-</t>
-    </r>
-  </si>
-  <si>
-    <t>this api is used to add favorite object</t>
-  </si>
-  <si>
-    <t>api/removeFavorite</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: user phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>favorite_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : favorite id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>status: request processing status
-              (true or false)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : success message
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>this api is used to free favorite object</t>
-  </si>
-  <si>
-    <t>api/myFavorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status: request processing status
-              (true or false)
-data :  provider list
-    detail information(
-        id : favorite id
-        type : 0-activity, 1-provider
-        object_id : favorite object id
-        detail :  favorite detail
-    - activity detail
-            id :  the identifier of activity
-            end_time : end time of activity
-            product_image : logo of activity's product
-            product_name: activity name
-            info_size : product's standard
-            info_box: product's total amount in activity
-            mans : the entered user number that is needed for this this activity
-            amount: needed product amount
-            cur_amount : current product amount
-            progress : progress status
-            min_amount : 1
-            old_price : original price
-            new_price: activity price
-            logos : activity's advertise images
-            text_html : activity introduction html
-            man_info: shop information
-            total_info: activity's product detail information
-     - provider detail
-              id : provider id
-              name : provider's name
-              image : provider logo image
-              logos : provider description images
-              address : provider address
-              contact_name : provider's contact people name
-              contact_phone : provider's contact people phone
-              'provider_content' =&gt; (json_decode($provider_info-&gt;more_data))-&gt;content,
-              products :  product list ( is the same with activity detail)
-)
-</t>
-  </si>
-  <si>
-    <t>feedback manage</t>
-  </si>
-  <si>
-    <t>api/addFeedback</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>userid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: user phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>feedback</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : feedback message</t>
-    </r>
-  </si>
-  <si>
-    <t>this api is used to add feedback message</t>
-  </si>
-  <si>
-    <t>shipping manage</t>
-  </si>
-  <si>
-    <t>api/shippingComplete</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>userid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: ship man id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>order_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : order id</t>
-    </r>
-  </si>
-  <si>
-    <t>this api is used to finish shipping</t>
-  </si>
-  <si>
-    <t>api/shippingItems</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>userid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: ship man id
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>status: request processing status
-              (true or false)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>data</t>
     </r>
     <r>
@@ -1336,74 +696,6 @@
       </rPr>
       <t xml:space="preserve"> : order list
      detail information :  same with orderinfos.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>this api is used to get shipping list of current day</t>
-  </si>
-  <si>
-    <t>api/shippingHistory</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>userid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: ship man id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>start_date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : filter start date
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>end_date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : filter end date
 </t>
     </r>
   </si>
@@ -1892,12 +1184,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1942,8 +1234,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1956,8 +1268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1971,16 +1292,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2002,6 +1337,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2010,39 +1369,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2056,39 +1384,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2107,13 +1410,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,150 +1584,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2276,18 +1591,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,6 +1601,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2312,6 +1665,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2335,66 +1697,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2403,152 +1706,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2575,6 +1878,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2901,8 +2210,8 @@
   <sheetPr/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2980,7 +2289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="175.5" spans="1:6">
+    <row r="6" ht="202.5" spans="1:6">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3107,7 +2416,7 @@
       <c r="D12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -3188,7 +2497,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="75" spans="1:6">
+    <row r="17" ht="145.5" spans="1:6">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -3196,17 +2505,17 @@
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" ht="75" spans="1:6">
+    <row r="18" ht="225" spans="1:6">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -3214,166 +2523,166 @@
       <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>62</v>
+      <c r="E18" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" ht="85.5" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" ht="175.5" spans="1:6">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" ht="57" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="90" spans="1:6">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" ht="70.5" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" ht="105" spans="1:6">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="D21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="F21" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" ht="69" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" ht="54" spans="1:6">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="E22" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="F22" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" ht="409.5" spans="1:6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:6">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" ht="69" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" ht="162" spans="1:6">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>81</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" ht="69" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" ht="94.5" spans="1:6">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" ht="96" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" ht="123" spans="1:6">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="F26" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" ht="96" spans="1:6">
@@ -3382,16 +2691,16 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="D27" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="E27" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" ht="391.5" spans="1:6">
@@ -3400,116 +2709,116 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" ht="123" spans="1:6">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>104</v>
+      <c r="B29" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" ht="82.5" spans="1:6">
       <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>109</v>
+      <c r="B30" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" ht="96" spans="1:6">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>114</v>
+      <c r="B31" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" ht="69" spans="1:6">
       <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>119</v>
+      <c r="B32" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" ht="96" spans="1:6">
       <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>124</v>
+      <c r="B33" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>蜂体项目的 REST API</t>
   </si>
@@ -321,6 +321,33 @@
 </t>
   </si>
   <si>
+    <t>api/addBooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_id:L id of event
+user_id: id of user
+reg_num: number of registered member
+pay_type: type of payment
+</t>
+  </si>
+  <si>
+    <t>status: request processing status
+              (true or false)</t>
+  </si>
+  <si>
+    <t>this api is used to add booking information of user for a specific event</t>
+  </si>
+  <si>
+    <t>api/setFavouriteEvent</t>
+  </si>
+  <si>
+    <t>event_id: id of event
+user_id: id of user</t>
+  </si>
+  <si>
+    <t>this api is used to set the favourite state of event</t>
+  </si>
+  <si>
     <t>api/getRatingByEvent</t>
   </si>
   <si>
@@ -513,10 +540,6 @@
 boss_id: id of boss of site</t>
   </si>
   <si>
-    <t>status: request processing status
-              (true or false)</t>
-  </si>
-  <si>
     <t>this api is used to delete the information of favourite site</t>
   </si>
   <si>
@@ -840,13 +863,16 @@
                position of event
        latitude: latitude of position
                 of event
+       type: type of event
        avatar: avatar of the event
 honey: information of honeys in 5km
        no: index of honey
        longitude: longitude of
                    position of honey
        latitude: latitude of position 
-                          of honey</t>
+                          of honey
+       pick_choice: pick chance of 
+                           honey</t>
   </si>
   <si>
     <t>this api is used to get the sites and events in 5km from the current user
@@ -862,7 +888,8 @@
   </si>
   <si>
     <t>no: index of honey
-amount: amount of honey user catched</t>
+amount: amount of honey user catched
+user_id: id of current user</t>
   </si>
   <si>
     <t>this api is used to subtract the honey with the amount user collect</t>
@@ -958,16 +985,29 @@
   <si>
     <t>user_id: id of current use</t>
   </si>
+  <si>
+    <t>Rule Management</t>
+  </si>
+  <si>
+    <t>api/getRules</t>
+  </si>
+  <si>
+    <t>result: information of rule
+        value: value of rule</t>
+  </si>
+  <si>
+    <t>this api is used to get all information of rule</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1033,15 +1073,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,13 +1111,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1070,6 +1119,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1079,7 +1188,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1087,7 +1196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,82 +1218,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1196,187 +1236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,6 +1427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1409,7 +1464,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,18 +1488,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,36 +1508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1487,157 +1516,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1720,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2003,10 +2046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2232,7 +2275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="145.5" spans="1:6">
+    <row r="14" ht="67.5" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
@@ -2248,122 +2291,122 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="67.5" spans="1:6">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" ht="27" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" ht="108" spans="1:6">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="16" ht="145.5" spans="1:6">
+      <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="17" ht="67.5" spans="1:6">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" ht="139.5" spans="1:6">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" ht="405" spans="1:6">
+    </row>
+    <row r="18" ht="108" spans="1:6">
       <c r="A18" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="10" t="s">
+    </row>
+    <row r="19" ht="139.5" spans="1:6">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" ht="27" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" ht="55.5" spans="1:6">
-      <c r="A20" s="3"/>
+    </row>
+    <row r="20" ht="405" spans="1:6">
+      <c r="A20" s="3">
+        <v>12</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" ht="145.5" spans="1:6">
+    </row>
+    <row r="21" ht="27" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>47</v>
@@ -2372,379 +2415,425 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" ht="225" spans="1:6">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" ht="55.5" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" ht="175.5" spans="1:6">
-      <c r="A23" s="3">
+    <row r="23" ht="145.5" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" ht="225" spans="1:6">
+      <c r="A24" s="3">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" ht="175.5" spans="1:6">
+      <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" ht="90" spans="1:6">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="B25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" ht="105" spans="1:6">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" ht="54" spans="1:6">
+    <row r="26" ht="90" spans="1:6">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" ht="40.5" spans="1:6">
+    </row>
+    <row r="27" ht="105" spans="1:6">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="6" t="s">
+    </row>
+    <row r="28" ht="54" spans="1:6">
+      <c r="A28" s="3">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" ht="162" spans="1:6">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="E28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" ht="94.5" spans="1:6">
+    </row>
+    <row r="29" ht="40.5" spans="1:6">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="6" t="s">
+    </row>
+    <row r="30" ht="162" spans="1:6">
+      <c r="A30" s="3">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" ht="123" spans="1:6">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" ht="256.5" spans="1:6">
+    <row r="31" ht="94.5" spans="1:6">
       <c r="A31" s="3">
+        <v>20</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" ht="123" spans="1:6">
+      <c r="A32" s="3">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" ht="256.5" spans="1:6">
+      <c r="A33" s="3">
         <v>22</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" ht="94.5" spans="1:6">
-      <c r="A32" s="3">
+      <c r="B33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" ht="94.5" spans="1:6">
+      <c r="A34" s="3">
         <v>23</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" ht="81" spans="1:6">
-      <c r="A33" s="3">
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" ht="81" spans="1:6">
+      <c r="A35" s="3">
         <v>24</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" ht="108" spans="1:6">
-      <c r="A34" s="3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" ht="108" spans="1:6">
+      <c r="A36" s="3">
         <v>25</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" ht="297" spans="1:6">
-      <c r="A35" s="3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" ht="337.5" spans="1:6">
+      <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:6">
-      <c r="A36" s="3">
+      <c r="B37" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:6">
+      <c r="A38" s="3">
         <v>27</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" ht="108" spans="1:6">
-      <c r="A37" s="3">
+      <c r="B38" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" ht="108" spans="1:6">
+      <c r="A39" s="3">
         <v>28</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" ht="148.5" spans="1:6">
-      <c r="A38" s="3">
+      <c r="B39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" ht="148.5" spans="1:6">
+      <c r="A40" s="3">
         <v>29</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" ht="148.5" spans="2:6">
-      <c r="B39" s="14"/>
-      <c r="C39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" ht="54" spans="2:6">
       <c r="B40" s="14"/>
       <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="F40" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="15" t="s">
+    </row>
+    <row r="41" ht="148.5" spans="2:6">
+      <c r="B41" s="14"/>
+      <c r="C41" t="s">
         <v>148</v>
       </c>
-      <c r="F40" t="s">
+      <c r="D41" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="41" ht="148.5" spans="2:5">
-      <c r="B41" t="s">
+      <c r="E41" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F41" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="42" ht="54" spans="2:6">
+      <c r="B42" s="14"/>
+      <c r="C42" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>140</v>
+      <c r="D42" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" ht="148.5" spans="2:5">
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="2:6">
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="A1:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="14295" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>蜂体项目的 REST API</t>
   </si>
@@ -85,6 +85,28 @@
   </si>
   <si>
     <t>this api is used to get information of current user for authorization</t>
+  </si>
+  <si>
+    <t>api/getUserStateByOpenId</t>
+  </si>
+  <si>
+    <t>open_id: id of current user of weixin platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status: request processing status
+result: information array of user
+       state: sign up state of user
+       role: role of user
+       name: name of user
+       phone: phone number of user
+       site_name: name of site if user
+                        is boss
+       address: address of site
+       allow_pic: license picture
+       id_no: no of identification
+       id_pic1: image of id card front
+       id_pic2: back image of id card
+       </t>
   </si>
   <si>
     <t>api/getUserState</t>
@@ -998,6 +1020,70 @@
   <si>
     <t>this api is used to get all information of rule</t>
   </si>
+  <si>
+    <t>Payment Management</t>
+  </si>
+  <si>
+    <t>api/pay</t>
+  </si>
+  <si>
+    <t>user_id: id of current user
+out_trade_no: out_trade_no of payment
+total_fee: total fee of payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this api is used to set payment </t>
+  </si>
+  <si>
+    <t>api/refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id: id of current user
+out_refund_no: out_refund_no of refund
+out_trade_no: out_trade no of payment
+total_fee: total fee of refund
+booking_id: id of booking whick user want to be cancel booking
+</t>
+  </si>
+  <si>
+    <t>this api is used to set refund for canceling book</t>
+  </si>
+  <si>
+    <t>Alarm Management</t>
+  </si>
+  <si>
+    <t>api/getNewAlarm</t>
+  </si>
+  <si>
+    <t>result: array of new alarm</t>
+  </si>
+  <si>
+    <t>this api is used to get amount of new alarm</t>
+  </si>
+  <si>
+    <t>api/getAlarm</t>
+  </si>
+  <si>
+    <t>result: array of alarm for current user</t>
+  </si>
+  <si>
+    <t>this api is used to get alarm information</t>
+  </si>
+  <si>
+    <t>Search Management</t>
+  </si>
+  <si>
+    <t>api/getAllBoss</t>
+  </si>
+  <si>
+    <t>search_string: keyword string for searching site name</t>
+  </si>
+  <si>
+    <t>result: array of similar site_name and information related that</t>
+  </si>
+  <si>
+    <t>this api is used to get site information similar to keyword</t>
+  </si>
 </sst>
 </file>
 
@@ -1006,8 +1092,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1073,31 +1159,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,15 +1189,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,17 +1213,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1171,17 +1258,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,28 +1304,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1236,7 +1322,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,37 +1472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,121 +1496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,21 +1513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1464,22 +1535,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1488,7 +1544,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,15 +1575,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1527,6 +1583,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1535,28 +1621,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1568,112 +1654,112 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2046,10 +2132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2143,10 +2229,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="202.5" spans="1:6">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
+    <row r="7" ht="120" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -2158,57 +2242,57 @@
         <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="202.5" spans="1:6">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="243" spans="1:6">
-      <c r="A8" s="3">
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="243" spans="1:6">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" ht="297" spans="1:6">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="81" spans="1:6">
+    </row>
+    <row r="10" ht="297" spans="1:6">
       <c r="A10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>29</v>
@@ -2217,97 +2301,99 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="1:6">
+    <row r="11" ht="81" spans="1:6">
       <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="1:6">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" ht="189" spans="1:6">
-      <c r="A12" s="3">
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="189" spans="1:6">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" ht="409.5" spans="1:6">
-      <c r="A13" s="3">
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="409.5" spans="1:6">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" ht="67.5" spans="1:6">
-      <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:6">
+    </row>
+    <row r="15" ht="67.5" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="145.5" spans="1:6">
+    <row r="16" ht="27" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
@@ -2317,197 +2403,195 @@
         <v>53</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6" t="s">
+    </row>
+    <row r="17" ht="145.5" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" ht="67.5" spans="1:6">
-      <c r="A17" s="3">
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:6">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" ht="108" spans="1:6">
-      <c r="A18" s="3">
+      <c r="D18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" ht="108" spans="1:6">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" ht="139.5" spans="1:6">
-      <c r="A19" s="3">
+      <c r="D19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" ht="139.5" spans="1:6">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" ht="405" spans="1:6">
-      <c r="A20" s="3">
+      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" ht="405" spans="1:6">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:6">
-      <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" ht="55.5" spans="1:6">
+    <row r="22" ht="27" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" ht="145.5" spans="1:6">
+    </row>
+    <row r="23" ht="55.5" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" ht="225" spans="1:6">
-      <c r="A24" s="3">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="24" ht="145.5" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="6" t="s">
+    </row>
+    <row r="25" ht="225" spans="1:6">
+      <c r="A25" s="3">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" ht="175.5" spans="1:6">
-      <c r="A25" s="3">
+      <c r="C25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" ht="175.5" spans="1:6">
+      <c r="A26" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="B26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" ht="90" spans="1:6">
-      <c r="A26" s="3">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" ht="105" spans="1:6">
+    <row r="27" ht="90" spans="1:6">
       <c r="A27" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
@@ -2517,323 +2601,420 @@
         <v>96</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" ht="54" spans="1:6">
+    <row r="28" ht="105" spans="1:6">
       <c r="A28" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="12" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" spans="1:6">
+    </row>
+    <row r="29" ht="54" spans="1:6">
       <c r="A29" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" ht="162" spans="1:6">
+    <row r="30" ht="40.5" spans="1:6">
       <c r="A30" s="3">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" ht="162" spans="1:6">
+      <c r="A31" s="3">
         <v>19</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" ht="94.5" spans="1:6">
-      <c r="A31" s="3">
-        <v>20</v>
-      </c>
-      <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" ht="123" spans="1:6">
+    <row r="32" ht="94.5" spans="1:6">
       <c r="A32" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" ht="256.5" spans="1:6">
+    <row r="33" ht="123" spans="1:6">
       <c r="A33" s="3">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" ht="256.5" spans="1:6">
+      <c r="A34" s="3">
         <v>22</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" ht="94.5" spans="1:6">
-      <c r="A34" s="3">
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" ht="94.5" spans="1:6">
+      <c r="A35" s="3">
         <v>23</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" ht="81" spans="1:6">
-      <c r="A35" s="3">
-        <v>24</v>
-      </c>
-      <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" ht="108" spans="1:6">
+    </row>
+    <row r="36" ht="81" spans="1:6">
       <c r="A36" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="6" t="s">
+    </row>
+    <row r="37" ht="108" spans="1:6">
+      <c r="A37" s="3">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" ht="337.5" spans="1:6">
-      <c r="A37" s="3">
+      <c r="D37" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" ht="337.5" spans="1:6">
+      <c r="A38" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="B38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:6">
-      <c r="A38" s="3">
+      <c r="D38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:6">
+      <c r="A39" s="3">
         <v>27</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="B39" s="13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="39" ht="108" spans="1:6">
-      <c r="A39" s="3">
+      <c r="C39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" ht="108" spans="1:6">
+      <c r="A40" s="3">
         <v>28</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="B40" s="14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="40" ht="148.5" spans="1:6">
-      <c r="A40" s="3">
+      <c r="C40" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" ht="148.5" spans="1:6">
+      <c r="A41" s="3">
         <v>29</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" ht="148.5" spans="2:6">
       <c r="B41" s="14"/>
       <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" ht="54" spans="2:6">
+    </row>
+    <row r="42" ht="148.5" spans="2:6">
       <c r="B42" s="14"/>
       <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="F42" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="43" ht="54" spans="2:6">
+      <c r="B43" s="14"/>
+      <c r="C43" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" ht="148.5" spans="2:5">
-      <c r="B43" t="s">
+      <c r="D43" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>158</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="2:6">
+    </row>
+    <row r="44" ht="148.5" spans="2:5">
       <c r="B44" t="s">
         <v>159</v>
       </c>
       <c r="C44" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="D44" t="s">
         <v>161</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="2:6">
+      <c r="B45" t="s">
         <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="2:6">
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" ht="94.5" spans="3:6">
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B40:B43"/>
     <mergeCell ref="A1:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
